--- a/data/pca/factorExposure/factorExposure_2011-09-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02220574846537377</v>
+        <v>0.01812084930954334</v>
       </c>
       <c r="C2">
-        <v>-0.002435901692161768</v>
+        <v>-0.005117764294719614</v>
       </c>
       <c r="D2">
-        <v>-0.05301695706444653</v>
+        <v>-0.04154473379498746</v>
       </c>
       <c r="E2">
-        <v>0.05684897795532855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01368825406755611</v>
+      </c>
+      <c r="F2">
+        <v>0.03825932505627547</v>
+      </c>
+      <c r="G2">
+        <v>-0.01843680089180819</v>
+      </c>
+      <c r="H2">
+        <v>-0.005806747260618161</v>
+      </c>
+      <c r="I2">
+        <v>-0.02055165950705634</v>
+      </c>
+      <c r="J2">
+        <v>0.05585416957176978</v>
+      </c>
+      <c r="K2">
+        <v>-0.0819107905100738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.08995349137213376</v>
+        <v>0.09926728692145988</v>
       </c>
       <c r="C4">
-        <v>0.04984068260123063</v>
+        <v>-0.05532744574190608</v>
       </c>
       <c r="D4">
-        <v>-0.05844484033101252</v>
+        <v>-0.03271282818202625</v>
       </c>
       <c r="E4">
-        <v>0.02225155782928375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05760737895829637</v>
+      </c>
+      <c r="F4">
+        <v>0.0525608844962271</v>
+      </c>
+      <c r="G4">
+        <v>0.03173049887418601</v>
+      </c>
+      <c r="H4">
+        <v>-0.001519438735896928</v>
+      </c>
+      <c r="I4">
+        <v>0.0949703478091139</v>
+      </c>
+      <c r="J4">
+        <v>-0.03112674885334468</v>
+      </c>
+      <c r="K4">
+        <v>0.03912833527388395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1219176163536344</v>
+        <v>0.1307992051298149</v>
       </c>
       <c r="C6">
-        <v>-0.008571280465659952</v>
+        <v>-0.004448835425815772</v>
       </c>
       <c r="D6">
-        <v>-0.0356538817413348</v>
+        <v>-0.0490051676365918</v>
       </c>
       <c r="E6">
-        <v>0.05493553934442264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.002121699405770415</v>
+      </c>
+      <c r="F6">
+        <v>0.03305682227295426</v>
+      </c>
+      <c r="G6">
+        <v>0.04427648116727916</v>
+      </c>
+      <c r="H6">
+        <v>0.2040641260864204</v>
+      </c>
+      <c r="I6">
+        <v>0.00938037154307513</v>
+      </c>
+      <c r="J6">
+        <v>-0.4385671507393993</v>
+      </c>
+      <c r="K6">
+        <v>0.07152285770239195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07281376412506561</v>
+        <v>0.07154726497392107</v>
       </c>
       <c r="C7">
-        <v>0.009352792810445845</v>
+        <v>-0.04669810118866293</v>
       </c>
       <c r="D7">
-        <v>-0.0764746458601256</v>
+        <v>-0.06282698582581188</v>
       </c>
       <c r="E7">
-        <v>0.05713524133202028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.03118589224189029</v>
+      </c>
+      <c r="F7">
+        <v>0.04896151932440475</v>
+      </c>
+      <c r="G7">
+        <v>-0.0101138144307935</v>
+      </c>
+      <c r="H7">
+        <v>-0.01378634528765373</v>
+      </c>
+      <c r="I7">
+        <v>0.03669070220388403</v>
+      </c>
+      <c r="J7">
+        <v>0.07379504251589722</v>
+      </c>
+      <c r="K7">
+        <v>0.05360790026772672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04139430893225386</v>
+        <v>0.04248992035152756</v>
       </c>
       <c r="C8">
-        <v>0.06396420035722118</v>
+        <v>-0.03093036586824882</v>
       </c>
       <c r="D8">
-        <v>-0.004315235338387961</v>
+        <v>0.01771283897170259</v>
       </c>
       <c r="E8">
-        <v>0.05324150336991196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02867709523249143</v>
+      </c>
+      <c r="F8">
+        <v>0.07598258342468026</v>
+      </c>
+      <c r="G8">
+        <v>0.05120455873269932</v>
+      </c>
+      <c r="H8">
+        <v>0.03251094595675488</v>
+      </c>
+      <c r="I8">
+        <v>0.1148461714803381</v>
+      </c>
+      <c r="J8">
+        <v>-0.0121962544442785</v>
+      </c>
+      <c r="K8">
+        <v>0.02744843566712733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07919569391747167</v>
+        <v>0.08648296333507612</v>
       </c>
       <c r="C9">
-        <v>0.055644739036356</v>
+        <v>-0.05453383008901769</v>
       </c>
       <c r="D9">
-        <v>-0.05622781103810669</v>
+        <v>-0.03207443434424934</v>
       </c>
       <c r="E9">
-        <v>0.01982560544750904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.04659531184050048</v>
+      </c>
+      <c r="F9">
+        <v>0.04478845584371108</v>
+      </c>
+      <c r="G9">
+        <v>0.04824495526217901</v>
+      </c>
+      <c r="H9">
+        <v>-0.001335840388014682</v>
+      </c>
+      <c r="I9">
+        <v>0.09157235670423425</v>
+      </c>
+      <c r="J9">
+        <v>-0.0301589639189239</v>
+      </c>
+      <c r="K9">
+        <v>0.03192057858393033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02421751793925144</v>
+        <v>0.06335082928097953</v>
       </c>
       <c r="C10">
-        <v>-0.16688003888881</v>
+        <v>0.1989072418586037</v>
       </c>
       <c r="D10">
-        <v>0.03954335151055996</v>
+        <v>-0.008932813355004154</v>
       </c>
       <c r="E10">
-        <v>0.07916788953840598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01372439542341445</v>
+      </c>
+      <c r="F10">
+        <v>0.05797899498413145</v>
+      </c>
+      <c r="G10">
+        <v>-0.04010394391139846</v>
+      </c>
+      <c r="H10">
+        <v>0.02062803003599051</v>
+      </c>
+      <c r="I10">
+        <v>-0.06520412498452831</v>
+      </c>
+      <c r="J10">
+        <v>0.01151519125698343</v>
+      </c>
+      <c r="K10">
+        <v>-0.01754055313922279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07675222939882126</v>
+        <v>0.07744056404957196</v>
       </c>
       <c r="C11">
-        <v>0.04712321737998209</v>
+        <v>-0.05628313241681804</v>
       </c>
       <c r="D11">
-        <v>-0.05088010500009397</v>
+        <v>-0.03360492937150157</v>
       </c>
       <c r="E11">
-        <v>0.0348002632679872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01191720828016557</v>
+      </c>
+      <c r="F11">
+        <v>0.03313365573459994</v>
+      </c>
+      <c r="G11">
+        <v>0.06600061740646714</v>
+      </c>
+      <c r="H11">
+        <v>-0.02259836603671282</v>
+      </c>
+      <c r="I11">
+        <v>0.06824963107991686</v>
+      </c>
+      <c r="J11">
+        <v>0.03667141123834945</v>
+      </c>
+      <c r="K11">
+        <v>-0.03886513971627666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07635757094611363</v>
+        <v>0.07572682054323393</v>
       </c>
       <c r="C12">
-        <v>0.02836726713195315</v>
+        <v>-0.0438695076890412</v>
       </c>
       <c r="D12">
-        <v>-0.05398238580328505</v>
+        <v>-0.0322566449187623</v>
       </c>
       <c r="E12">
-        <v>0.02199601062316351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02481277077171578</v>
+      </c>
+      <c r="F12">
+        <v>0.0221535727746874</v>
+      </c>
+      <c r="G12">
+        <v>0.03883312408625058</v>
+      </c>
+      <c r="H12">
+        <v>0.007465598889241496</v>
+      </c>
+      <c r="I12">
+        <v>0.08705874228351032</v>
+      </c>
+      <c r="J12">
+        <v>0.04180674432220423</v>
+      </c>
+      <c r="K12">
+        <v>-0.01924671146661327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.07792425356296888</v>
+        <v>0.06885110885198202</v>
       </c>
       <c r="C13">
-        <v>0.03730272469620241</v>
+        <v>-0.03710793728749587</v>
       </c>
       <c r="D13">
-        <v>-0.0357790400656907</v>
+        <v>0.0008638870380013033</v>
       </c>
       <c r="E13">
-        <v>0.02435119088707801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04331960616855988</v>
+      </c>
+      <c r="F13">
+        <v>0.03133928792177772</v>
+      </c>
+      <c r="G13">
+        <v>0.02026352252402719</v>
+      </c>
+      <c r="H13">
+        <v>-0.01356981871891032</v>
+      </c>
+      <c r="I13">
+        <v>0.09714777264226353</v>
+      </c>
+      <c r="J13">
+        <v>0.04500128171588315</v>
+      </c>
+      <c r="K13">
+        <v>0.06290165495287664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03393121854826033</v>
+        <v>0.04373340963379362</v>
       </c>
       <c r="C14">
-        <v>-0.002908519573645004</v>
+        <v>-0.008235327275929055</v>
       </c>
       <c r="D14">
-        <v>-0.0228687814241546</v>
+        <v>-0.02925531363726556</v>
       </c>
       <c r="E14">
-        <v>0.009411560875319455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.02572790806085359</v>
+      </c>
+      <c r="F14">
+        <v>0.01763548333295592</v>
+      </c>
+      <c r="G14">
+        <v>0.04376924139258824</v>
+      </c>
+      <c r="H14">
+        <v>-0.04944096010279201</v>
+      </c>
+      <c r="I14">
+        <v>0.07017690179433764</v>
+      </c>
+      <c r="J14">
+        <v>-0.0366613186141988</v>
+      </c>
+      <c r="K14">
+        <v>0.05369874332363435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05174310833480673</v>
+        <v>0.0434201501519601</v>
       </c>
       <c r="C15">
-        <v>0.02005126040164527</v>
+        <v>-0.01749371691711371</v>
       </c>
       <c r="D15">
-        <v>-0.01083116149326284</v>
+        <v>0.01072542586593279</v>
       </c>
       <c r="E15">
-        <v>0.0007319038046832476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.04392285811445524</v>
+      </c>
+      <c r="F15">
+        <v>0.004886357670450443</v>
+      </c>
+      <c r="G15">
+        <v>0.03026161650476035</v>
+      </c>
+      <c r="H15">
+        <v>-0.0108681994796368</v>
+      </c>
+      <c r="I15">
+        <v>0.0337683538561778</v>
+      </c>
+      <c r="J15">
+        <v>-0.02267906400596896</v>
+      </c>
+      <c r="K15">
+        <v>0.08516827995106102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06693937503592533</v>
+        <v>0.07611145719982336</v>
       </c>
       <c r="C16">
-        <v>0.04320928227476004</v>
+        <v>-0.05487675263097814</v>
       </c>
       <c r="D16">
-        <v>-0.05919811718618406</v>
+        <v>-0.04134183894470542</v>
       </c>
       <c r="E16">
-        <v>0.02473059724874931</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03028553220129349</v>
+      </c>
+      <c r="F16">
+        <v>0.02685495889363201</v>
+      </c>
+      <c r="G16">
+        <v>0.03773433317108647</v>
+      </c>
+      <c r="H16">
+        <v>-0.01412183461180034</v>
+      </c>
+      <c r="I16">
+        <v>0.0448238793219219</v>
+      </c>
+      <c r="J16">
+        <v>0.0268671968689686</v>
+      </c>
+      <c r="K16">
+        <v>-0.01351788540853296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.070146091341083</v>
+        <v>0.06431913724688891</v>
       </c>
       <c r="C20">
-        <v>0.04385048086241392</v>
+        <v>-0.03936169725527563</v>
       </c>
       <c r="D20">
-        <v>-0.03448493921664304</v>
+        <v>-0.01274019301479386</v>
       </c>
       <c r="E20">
-        <v>0.0193814225437076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01130224289492506</v>
+      </c>
+      <c r="F20">
+        <v>0.02561039545535244</v>
+      </c>
+      <c r="G20">
+        <v>0.03088832708967463</v>
+      </c>
+      <c r="H20">
+        <v>-0.02719499770146087</v>
+      </c>
+      <c r="I20">
+        <v>0.1140931774985848</v>
+      </c>
+      <c r="J20">
+        <v>0.02050335314712662</v>
+      </c>
+      <c r="K20">
+        <v>0.02058692533580817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03898020400854735</v>
+        <v>0.03160920074500757</v>
       </c>
       <c r="C21">
-        <v>0.01439047907900351</v>
+        <v>-0.02014103438117464</v>
       </c>
       <c r="D21">
-        <v>0.008735940899784335</v>
+        <v>0.01787676864758302</v>
       </c>
       <c r="E21">
-        <v>0.008988931555272158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02672011502567198</v>
+      </c>
+      <c r="F21">
+        <v>0.001024437666611185</v>
+      </c>
+      <c r="G21">
+        <v>0.0006406518073542378</v>
+      </c>
+      <c r="H21">
+        <v>0.07120596207643287</v>
+      </c>
+      <c r="I21">
+        <v>0.02406699924512866</v>
+      </c>
+      <c r="J21">
+        <v>-0.02087415320156406</v>
+      </c>
+      <c r="K21">
+        <v>0.03948867185373368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1097292998465015</v>
+        <v>0.09117181474883487</v>
       </c>
       <c r="C22">
-        <v>0.09685433280496439</v>
+        <v>-0.06417569961050783</v>
       </c>
       <c r="D22">
-        <v>-0.02160178388431905</v>
+        <v>0.1785229721809925</v>
       </c>
       <c r="E22">
-        <v>0.001740046527525922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.5035672098840819</v>
+      </c>
+      <c r="F22">
+        <v>0.09145993455047029</v>
+      </c>
+      <c r="G22">
+        <v>-0.3194102228828808</v>
+      </c>
+      <c r="H22">
+        <v>0.03928252004977229</v>
+      </c>
+      <c r="I22">
+        <v>-0.2334545323298226</v>
+      </c>
+      <c r="J22">
+        <v>0.0180914183502564</v>
+      </c>
+      <c r="K22">
+        <v>-0.0371172753871658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1106667979413796</v>
+        <v>0.0921142817779356</v>
       </c>
       <c r="C23">
-        <v>0.0965347001307945</v>
+        <v>-0.06463101509095907</v>
       </c>
       <c r="D23">
-        <v>-0.02282302337505865</v>
+        <v>0.1779580086955637</v>
       </c>
       <c r="E23">
-        <v>0.002999734338609695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.5076105942738671</v>
+      </c>
+      <c r="F23">
+        <v>0.09347983121456274</v>
+      </c>
+      <c r="G23">
+        <v>-0.3140533705490894</v>
+      </c>
+      <c r="H23">
+        <v>0.03863748652218245</v>
+      </c>
+      <c r="I23">
+        <v>-0.2357545746192976</v>
+      </c>
+      <c r="J23">
+        <v>0.01245252562964293</v>
+      </c>
+      <c r="K23">
+        <v>-0.03662235975152269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08800764631970009</v>
+        <v>0.08620390027996912</v>
       </c>
       <c r="C24">
-        <v>0.04530564165767142</v>
+        <v>-0.05450424741963619</v>
       </c>
       <c r="D24">
-        <v>-0.05187377445105933</v>
+        <v>-0.02879004070333548</v>
       </c>
       <c r="E24">
-        <v>0.03733069230840032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0290180294371043</v>
+      </c>
+      <c r="F24">
+        <v>0.03663511834882979</v>
+      </c>
+      <c r="G24">
+        <v>0.05555600996676208</v>
+      </c>
+      <c r="H24">
+        <v>0.003305035100674768</v>
+      </c>
+      <c r="I24">
+        <v>0.05939500543883342</v>
+      </c>
+      <c r="J24">
+        <v>0.01826367653202179</v>
+      </c>
+      <c r="K24">
+        <v>-0.02407217937088723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08244652023142519</v>
+        <v>0.07946106636664847</v>
       </c>
       <c r="C25">
-        <v>0.04139501076514121</v>
+        <v>-0.04647846268816899</v>
       </c>
       <c r="D25">
-        <v>-0.06129274036348596</v>
+        <v>-0.03539305370559769</v>
       </c>
       <c r="E25">
-        <v>0.04258436633942438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03677693470745571</v>
+      </c>
+      <c r="F25">
+        <v>0.0336481820282766</v>
+      </c>
+      <c r="G25">
+        <v>0.05479650069129585</v>
+      </c>
+      <c r="H25">
+        <v>-0.006584959377112623</v>
+      </c>
+      <c r="I25">
+        <v>0.07717145098716909</v>
+      </c>
+      <c r="J25">
+        <v>0.01975108555840362</v>
+      </c>
+      <c r="K25">
+        <v>-0.03292299496363179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05028686201062769</v>
+        <v>0.04572988327022807</v>
       </c>
       <c r="C26">
-        <v>0.02242950410432218</v>
+        <v>-0.02337577782931135</v>
       </c>
       <c r="D26">
-        <v>0.002087640090414215</v>
+        <v>0.02361762320151311</v>
       </c>
       <c r="E26">
-        <v>0.03077600109441353</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02403050383551704</v>
+      </c>
+      <c r="F26">
+        <v>0.02104691609624325</v>
+      </c>
+      <c r="G26">
+        <v>0.02444017495868122</v>
+      </c>
+      <c r="H26">
+        <v>-0.02102459919695951</v>
+      </c>
+      <c r="I26">
+        <v>0.01468568780962853</v>
+      </c>
+      <c r="J26">
+        <v>-0.005560632872588538</v>
+      </c>
+      <c r="K26">
+        <v>0.1234533606005239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04838585466465283</v>
+        <v>0.07830847616395607</v>
       </c>
       <c r="C28">
-        <v>-0.2772394815991361</v>
+        <v>0.2939654956052844</v>
       </c>
       <c r="D28">
-        <v>0.07857987434434202</v>
+        <v>0.0225238949097297</v>
       </c>
       <c r="E28">
-        <v>0.08338084331835291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007263030390028695</v>
+      </c>
+      <c r="F28">
+        <v>0.04075752130526038</v>
+      </c>
+      <c r="G28">
+        <v>0.02823226136337845</v>
+      </c>
+      <c r="H28">
+        <v>0.04503561546756038</v>
+      </c>
+      <c r="I28">
+        <v>-0.02600687500899697</v>
+      </c>
+      <c r="J28">
+        <v>0.01332880141121758</v>
+      </c>
+      <c r="K28">
+        <v>0.07333352916119451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05656766040480906</v>
+        <v>0.05546794679699398</v>
       </c>
       <c r="C29">
-        <v>-0.01036506523323853</v>
+        <v>-0.007469034348920564</v>
       </c>
       <c r="D29">
-        <v>-0.03278783105348525</v>
+        <v>-0.02823272375750147</v>
       </c>
       <c r="E29">
-        <v>0.02260311256567293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0370495517727011</v>
+      </c>
+      <c r="F29">
+        <v>0.02872559277745349</v>
+      </c>
+      <c r="G29">
+        <v>0.03142032813178704</v>
+      </c>
+      <c r="H29">
+        <v>-0.06385713510832028</v>
+      </c>
+      <c r="I29">
+        <v>0.04835046167857823</v>
+      </c>
+      <c r="J29">
+        <v>-0.01424767849725955</v>
+      </c>
+      <c r="K29">
+        <v>0.05335248940407013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1535852925471031</v>
+        <v>0.1332354489592519</v>
       </c>
       <c r="C30">
-        <v>0.0597547751420318</v>
+        <v>-0.0555903018892211</v>
       </c>
       <c r="D30">
-        <v>-0.08147842271304584</v>
+        <v>-0.02697668842405975</v>
       </c>
       <c r="E30">
-        <v>0.04028341442669418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0951009399297286</v>
+      </c>
+      <c r="F30">
+        <v>0.07717898298482595</v>
+      </c>
+      <c r="G30">
+        <v>0.05166478932076154</v>
+      </c>
+      <c r="H30">
+        <v>0.08496841889904183</v>
+      </c>
+      <c r="I30">
+        <v>0.3203070076527573</v>
+      </c>
+      <c r="J30">
+        <v>0.1278886818743568</v>
+      </c>
+      <c r="K30">
+        <v>0.1259653274486625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05801821631189484</v>
+        <v>0.04848822134491737</v>
       </c>
       <c r="C31">
-        <v>0.0125106637932245</v>
+        <v>-0.03523394647154339</v>
       </c>
       <c r="D31">
-        <v>-0.02965776228186663</v>
+        <v>-0.013746523309783</v>
       </c>
       <c r="E31">
-        <v>0.005180749015295943</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02602107122894214</v>
+      </c>
+      <c r="F31">
+        <v>0.002450995455082381</v>
+      </c>
+      <c r="G31">
+        <v>0.009775385174775213</v>
+      </c>
+      <c r="H31">
+        <v>-0.05436229708467246</v>
+      </c>
+      <c r="I31">
+        <v>0.04204809388316597</v>
+      </c>
+      <c r="J31">
+        <v>-0.02322763318683938</v>
+      </c>
+      <c r="K31">
+        <v>0.02430844810000051</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0458508104560094</v>
+        <v>0.04833615624504337</v>
       </c>
       <c r="C32">
-        <v>0.02186823605182233</v>
+        <v>-0.002008865030505546</v>
       </c>
       <c r="D32">
-        <v>-0.01244025472561987</v>
+        <v>0.02223269233775561</v>
       </c>
       <c r="E32">
-        <v>-0.0005142588408063628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.08166547387889683</v>
+      </c>
+      <c r="F32">
+        <v>0.01107037247601953</v>
+      </c>
+      <c r="G32">
+        <v>0.004350839337139276</v>
+      </c>
+      <c r="H32">
+        <v>0.004622953821083589</v>
+      </c>
+      <c r="I32">
+        <v>-0.01170638176743224</v>
+      </c>
+      <c r="J32">
+        <v>0.06753311966501307</v>
+      </c>
+      <c r="K32">
+        <v>0.107833700293195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.101870535131367</v>
+        <v>0.1017591661607494</v>
       </c>
       <c r="C33">
-        <v>0.03250993427042215</v>
+        <v>-0.04840751786580118</v>
       </c>
       <c r="D33">
-        <v>-0.04414146795112825</v>
+        <v>-0.01491420340713682</v>
       </c>
       <c r="E33">
-        <v>0.01116754850847473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03497418141755251</v>
+      </c>
+      <c r="F33">
+        <v>0.002312965154215676</v>
+      </c>
+      <c r="G33">
+        <v>0.01829314648520876</v>
+      </c>
+      <c r="H33">
+        <v>-0.02788403963406284</v>
+      </c>
+      <c r="I33">
+        <v>0.08091529648363817</v>
+      </c>
+      <c r="J33">
+        <v>-0.007861570891665353</v>
+      </c>
+      <c r="K33">
+        <v>0.02719132910818976</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06512701225350827</v>
+        <v>0.07111634187662944</v>
       </c>
       <c r="C34">
-        <v>0.04871326704782981</v>
+        <v>-0.0460412800972984</v>
       </c>
       <c r="D34">
-        <v>-0.03923291057537528</v>
+        <v>-0.02178524958522074</v>
       </c>
       <c r="E34">
-        <v>0.02223744799663735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01961463190413843</v>
+      </c>
+      <c r="F34">
+        <v>0.02430921499447157</v>
+      </c>
+      <c r="G34">
+        <v>0.03702649069970627</v>
+      </c>
+      <c r="H34">
+        <v>-0.0219246864997906</v>
+      </c>
+      <c r="I34">
+        <v>0.04894275438395494</v>
+      </c>
+      <c r="J34">
+        <v>-0.0007997167326823283</v>
+      </c>
+      <c r="K34">
+        <v>-0.04046640612936766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04218149593061023</v>
+        <v>0.03834931539628139</v>
       </c>
       <c r="C35">
-        <v>0.00717459275807894</v>
+        <v>-0.01624086240615829</v>
       </c>
       <c r="D35">
-        <v>-0.01919703205093403</v>
+        <v>-0.01286220561168164</v>
       </c>
       <c r="E35">
-        <v>-0.007531140572351182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01784173880445978</v>
+      </c>
+      <c r="F35">
+        <v>-0.012945759928324</v>
+      </c>
+      <c r="G35">
+        <v>0.011123707275628</v>
+      </c>
+      <c r="H35">
+        <v>-0.02319371804016058</v>
+      </c>
+      <c r="I35">
+        <v>0.048657130438079</v>
+      </c>
+      <c r="J35">
+        <v>0.007439073400211356</v>
+      </c>
+      <c r="K35">
+        <v>0.008333946863964839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03659599104381214</v>
+        <v>0.03338538184572464</v>
       </c>
       <c r="C36">
-        <v>0.01996167337238933</v>
+        <v>-0.01650125187898238</v>
       </c>
       <c r="D36">
-        <v>-0.01358222684585156</v>
+        <v>0.003940378830825746</v>
       </c>
       <c r="E36">
-        <v>0.02612935826107759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03071324231686319</v>
+      </c>
+      <c r="F36">
+        <v>0.03134172815252281</v>
+      </c>
+      <c r="G36">
+        <v>0.02442482032660657</v>
+      </c>
+      <c r="H36">
+        <v>-0.01382146512745099</v>
+      </c>
+      <c r="I36">
+        <v>0.06410606044151346</v>
+      </c>
+      <c r="J36">
+        <v>-0.0001909152740392832</v>
+      </c>
+      <c r="K36">
+        <v>0.0411502817127723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06374161488304479</v>
+        <v>0.0538896241733705</v>
       </c>
       <c r="C38">
-        <v>0.006635503260615824</v>
+        <v>-0.02567204386815066</v>
       </c>
       <c r="D38">
-        <v>0.01891391053847325</v>
+        <v>0.02768083838291744</v>
       </c>
       <c r="E38">
-        <v>-0.02329036495495122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009465685524752942</v>
+      </c>
+      <c r="F38">
+        <v>0.002572717534859654</v>
+      </c>
+      <c r="G38">
+        <v>-0.004316854700457673</v>
+      </c>
+      <c r="H38">
+        <v>-0.01574530066340604</v>
+      </c>
+      <c r="I38">
+        <v>-0.01395146201113612</v>
+      </c>
+      <c r="J38">
+        <v>0.03551611580355327</v>
+      </c>
+      <c r="K38">
+        <v>0.05066292007753651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09591035556093219</v>
+        <v>0.09993328520119939</v>
       </c>
       <c r="C39">
-        <v>0.02722612460652968</v>
+        <v>-0.04506917143278113</v>
       </c>
       <c r="D39">
-        <v>-0.05371082939625629</v>
+        <v>-0.03678597372993288</v>
       </c>
       <c r="E39">
-        <v>0.0005918145441970776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.03528465856083482</v>
+      </c>
+      <c r="F39">
+        <v>0.02247220774414743</v>
+      </c>
+      <c r="G39">
+        <v>0.04168906118870357</v>
+      </c>
+      <c r="H39">
+        <v>-0.0005005352381562832</v>
+      </c>
+      <c r="I39">
+        <v>0.06589817173843694</v>
+      </c>
+      <c r="J39">
+        <v>0.1329941541673598</v>
+      </c>
+      <c r="K39">
+        <v>-0.03096475788213792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07411835068255106</v>
+        <v>0.0519482020621574</v>
       </c>
       <c r="C40">
-        <v>0.01567449264707867</v>
+        <v>-0.04119469534583789</v>
       </c>
       <c r="D40">
-        <v>-0.02619708274475297</v>
+        <v>0.02360212338130351</v>
       </c>
       <c r="E40">
-        <v>0.006263125221278216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.06466913687350408</v>
+      </c>
+      <c r="F40">
+        <v>0.002911718350117562</v>
+      </c>
+      <c r="G40">
+        <v>0.04523604110066588</v>
+      </c>
+      <c r="H40">
+        <v>0.08230869515054035</v>
+      </c>
+      <c r="I40">
+        <v>0.1597347172983956</v>
+      </c>
+      <c r="J40">
+        <v>0.2502076038293376</v>
+      </c>
+      <c r="K40">
+        <v>-0.0332626033893227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.05841635801754357</v>
+        <v>0.04774192424755588</v>
       </c>
       <c r="C41">
-        <v>0.02959003875094349</v>
+        <v>-0.03661334825585712</v>
       </c>
       <c r="D41">
-        <v>-0.003120662358964419</v>
+        <v>0.006590653011093414</v>
       </c>
       <c r="E41">
-        <v>-0.01638562718394272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01586522806128914</v>
+      </c>
+      <c r="F41">
+        <v>-0.009541993702016719</v>
+      </c>
+      <c r="G41">
+        <v>0.02411465280313468</v>
+      </c>
+      <c r="H41">
+        <v>-0.03261567021300901</v>
+      </c>
+      <c r="I41">
+        <v>0.02797924912860501</v>
+      </c>
+      <c r="J41">
+        <v>0.04041433652699718</v>
+      </c>
+      <c r="K41">
+        <v>0.03302766582067464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06141196321406731</v>
+        <v>0.062231105250275</v>
       </c>
       <c r="C43">
-        <v>0.00710492423313993</v>
+        <v>-0.03215020382995395</v>
       </c>
       <c r="D43">
-        <v>-0.026183858243455</v>
+        <v>-0.01905239408335822</v>
       </c>
       <c r="E43">
-        <v>0.01641945747914424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01407328266007656</v>
+      </c>
+      <c r="F43">
+        <v>0.01791692253346711</v>
+      </c>
+      <c r="G43">
+        <v>-0.001457202155297225</v>
+      </c>
+      <c r="H43">
+        <v>-0.05322486662997301</v>
+      </c>
+      <c r="I43">
+        <v>0.01834117799830153</v>
+      </c>
+      <c r="J43">
+        <v>0.01446255045536491</v>
+      </c>
+      <c r="K43">
+        <v>0.01108025044968252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09449720454134736</v>
+        <v>0.0956341176978238</v>
       </c>
       <c r="C44">
-        <v>0.05112318445258499</v>
+        <v>-0.0548400298537268</v>
       </c>
       <c r="D44">
-        <v>-0.04058495339300854</v>
+        <v>-0.003549806945519416</v>
       </c>
       <c r="E44">
-        <v>0.07450214032724634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.08616990484802427</v>
+      </c>
+      <c r="F44">
+        <v>0.1138621991367752</v>
+      </c>
+      <c r="G44">
+        <v>0.07261326152343174</v>
+      </c>
+      <c r="H44">
+        <v>-0.02555305836602675</v>
+      </c>
+      <c r="I44">
+        <v>0.1207552060660628</v>
+      </c>
+      <c r="J44">
+        <v>0.06997894269588593</v>
+      </c>
+      <c r="K44">
+        <v>-0.02769776024311129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.0349660200108352</v>
+        <v>0.04691129581612279</v>
       </c>
       <c r="C46">
-        <v>0.02375614137252033</v>
+        <v>-0.03013999741166052</v>
       </c>
       <c r="D46">
-        <v>-0.02323091521224236</v>
+        <v>-0.01652508627951306</v>
       </c>
       <c r="E46">
-        <v>0.01495532960479033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0357410716444567</v>
+      </c>
+      <c r="F46">
+        <v>0.02537212555910006</v>
+      </c>
+      <c r="G46">
+        <v>0.004578536121232536</v>
+      </c>
+      <c r="H46">
+        <v>-0.01005336047600115</v>
+      </c>
+      <c r="I46">
+        <v>0.02334237799684575</v>
+      </c>
+      <c r="J46">
+        <v>-0.02819876152829157</v>
+      </c>
+      <c r="K46">
+        <v>0.04862606418226878</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04013305078229992</v>
+        <v>0.04858052506771516</v>
       </c>
       <c r="C47">
-        <v>-0.01142497090796987</v>
+        <v>-0.00420482503362469</v>
       </c>
       <c r="D47">
-        <v>-0.008137043876120291</v>
+        <v>-0.003917621446067222</v>
       </c>
       <c r="E47">
-        <v>0.01813895793224305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.04054359434229225</v>
+      </c>
+      <c r="F47">
+        <v>0.004370693266619638</v>
+      </c>
+      <c r="G47">
+        <v>-0.01693718847498829</v>
+      </c>
+      <c r="H47">
+        <v>-0.01862632521131602</v>
+      </c>
+      <c r="I47">
+        <v>0.03342261779886421</v>
+      </c>
+      <c r="J47">
+        <v>-0.03557373332916568</v>
+      </c>
+      <c r="K47">
+        <v>-0.003090359647535241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04870199808116166</v>
+        <v>0.04398737126851641</v>
       </c>
       <c r="C48">
-        <v>0.02258139106905229</v>
+        <v>-0.01759714466219959</v>
       </c>
       <c r="D48">
-        <v>-0.02837875035954797</v>
+        <v>0.006536167481021388</v>
       </c>
       <c r="E48">
-        <v>0.02201281386443126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.05042883625604903</v>
+      </c>
+      <c r="F48">
+        <v>0.01101966337633666</v>
+      </c>
+      <c r="G48">
+        <v>0.01288940186581407</v>
+      </c>
+      <c r="H48">
+        <v>0.002729975607651633</v>
+      </c>
+      <c r="I48">
+        <v>0.05177927951208795</v>
+      </c>
+      <c r="J48">
+        <v>-0.00214625382122556</v>
+      </c>
+      <c r="K48">
+        <v>0.04121301731052314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1555591328258805</v>
+        <v>0.2034644021940013</v>
       </c>
       <c r="C49">
-        <v>-0.02082387668436842</v>
+        <v>-0.006937699011887814</v>
       </c>
       <c r="D49">
-        <v>-0.06311573299943858</v>
+        <v>-0.1284713834673492</v>
       </c>
       <c r="E49">
-        <v>0.006133915181571186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.1517441230915058</v>
+      </c>
+      <c r="F49">
+        <v>-0.02114275783998852</v>
+      </c>
+      <c r="G49">
+        <v>-0.1345342610744319</v>
+      </c>
+      <c r="H49">
+        <v>0.164391896797803</v>
+      </c>
+      <c r="I49">
+        <v>-0.09939559418426495</v>
+      </c>
+      <c r="J49">
+        <v>0.005085353030502204</v>
+      </c>
+      <c r="K49">
+        <v>-0.1287347895172765</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06188860700212902</v>
+        <v>0.05514592615659206</v>
       </c>
       <c r="C50">
-        <v>0.01790844748638826</v>
+        <v>-0.03093486139154969</v>
       </c>
       <c r="D50">
-        <v>-0.03558097799502475</v>
+        <v>-0.01654608535492761</v>
       </c>
       <c r="E50">
-        <v>0.007252480951407919</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03829886320026487</v>
+      </c>
+      <c r="F50">
+        <v>0.001960403792024045</v>
+      </c>
+      <c r="G50">
+        <v>0.02311731344111961</v>
+      </c>
+      <c r="H50">
+        <v>-0.06279773376667283</v>
+      </c>
+      <c r="I50">
+        <v>0.03717669324915287</v>
+      </c>
+      <c r="J50">
+        <v>-0.0400057874224503</v>
+      </c>
+      <c r="K50">
+        <v>0.03547855363287706</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03347622136498849</v>
+        <v>0.0403667165399136</v>
       </c>
       <c r="C51">
-        <v>-0.006948037661207232</v>
+        <v>0.004480263633018394</v>
       </c>
       <c r="D51">
-        <v>0.01153693542164126</v>
+        <v>0.01169832500538784</v>
       </c>
       <c r="E51">
-        <v>0.00278407949407441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01844757243141302</v>
+      </c>
+      <c r="F51">
+        <v>0.01594544024786293</v>
+      </c>
+      <c r="G51">
+        <v>-0.02489716044626306</v>
+      </c>
+      <c r="H51">
+        <v>0.008285918896902701</v>
+      </c>
+      <c r="I51">
+        <v>-0.009852176694618221</v>
+      </c>
+      <c r="J51">
+        <v>0.03461580951540858</v>
+      </c>
+      <c r="K51">
+        <v>-0.06339385290655111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1599504140154137</v>
+        <v>0.1586557515521297</v>
       </c>
       <c r="C53">
-        <v>-0.03861830401507497</v>
+        <v>-0.01131182867464824</v>
       </c>
       <c r="D53">
-        <v>-0.04423516300106018</v>
+        <v>-0.05746282839553515</v>
       </c>
       <c r="E53">
-        <v>0.008468500546150256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02151120215536018</v>
+      </c>
+      <c r="F53">
+        <v>-0.01405213100548368</v>
+      </c>
+      <c r="G53">
+        <v>-0.006784553405081647</v>
+      </c>
+      <c r="H53">
+        <v>-0.2398878701192961</v>
+      </c>
+      <c r="I53">
+        <v>-0.05521747903226795</v>
+      </c>
+      <c r="J53">
+        <v>-0.0577514814558161</v>
+      </c>
+      <c r="K53">
+        <v>-0.06551301458830196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06315950206469179</v>
+        <v>0.06274306327184598</v>
       </c>
       <c r="C54">
-        <v>0.01576210712450773</v>
+        <v>-0.01170254389612223</v>
       </c>
       <c r="D54">
-        <v>-0.02157684005666025</v>
+        <v>-0.00136091135399802</v>
       </c>
       <c r="E54">
-        <v>0.03683147030615151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.07411865023266341</v>
+      </c>
+      <c r="F54">
+        <v>0.041261523258799</v>
+      </c>
+      <c r="G54">
+        <v>0.05451530959229598</v>
+      </c>
+      <c r="H54">
+        <v>-0.01089572347163715</v>
+      </c>
+      <c r="I54">
+        <v>0.1435635437219548</v>
+      </c>
+      <c r="J54">
+        <v>-0.008126482273958718</v>
+      </c>
+      <c r="K54">
+        <v>0.07632581843964602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09637668280725945</v>
+        <v>0.09724339039916781</v>
       </c>
       <c r="C55">
-        <v>-0.009248022464332003</v>
+        <v>-0.02147414087054546</v>
       </c>
       <c r="D55">
-        <v>-0.0459761420369884</v>
+        <v>-0.04246134313982149</v>
       </c>
       <c r="E55">
-        <v>0.02633706923347514</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.009673182528082665</v>
+      </c>
+      <c r="F55">
+        <v>0.01978786287314637</v>
+      </c>
+      <c r="G55">
+        <v>0.03396598133387561</v>
+      </c>
+      <c r="H55">
+        <v>-0.1694762396357185</v>
+      </c>
+      <c r="I55">
+        <v>-0.005849641853598968</v>
+      </c>
+      <c r="J55">
+        <v>-0.04519408005357018</v>
+      </c>
+      <c r="K55">
+        <v>-0.04452305700371371</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1540477810436565</v>
+        <v>0.1531173151599594</v>
       </c>
       <c r="C56">
-        <v>-0.03704022247782156</v>
+        <v>-0.02867540525173728</v>
       </c>
       <c r="D56">
-        <v>-0.06364712636843683</v>
+        <v>-0.06646766620977429</v>
       </c>
       <c r="E56">
-        <v>0.0437276501713405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.003723705536964079</v>
+      </c>
+      <c r="F56">
+        <v>0.003170608630157108</v>
+      </c>
+      <c r="G56">
+        <v>0.02014342626077325</v>
+      </c>
+      <c r="H56">
+        <v>-0.2292127828342652</v>
+      </c>
+      <c r="I56">
+        <v>-0.07984325285487287</v>
+      </c>
+      <c r="J56">
+        <v>-0.01829216513852611</v>
+      </c>
+      <c r="K56">
+        <v>-0.0307328970920391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1213392138574324</v>
+        <v>0.08361843500241907</v>
       </c>
       <c r="C58">
-        <v>0.08817281017472674</v>
+        <v>-0.05426013838570324</v>
       </c>
       <c r="D58">
-        <v>0.0860387578807236</v>
+        <v>0.158761575498881</v>
       </c>
       <c r="E58">
-        <v>0.1243974009358614</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.03981214230838039</v>
+      </c>
+      <c r="F58">
+        <v>0.07614597834741409</v>
+      </c>
+      <c r="G58">
+        <v>-0.1132702551749571</v>
+      </c>
+      <c r="H58">
+        <v>0.2337341694672466</v>
+      </c>
+      <c r="I58">
+        <v>0.4433162987623112</v>
+      </c>
+      <c r="J58">
+        <v>0.04144132980183089</v>
+      </c>
+      <c r="K58">
+        <v>-0.3088986038722724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1307895457980309</v>
+        <v>0.1629218528689008</v>
       </c>
       <c r="C59">
-        <v>-0.4183606525550577</v>
+        <v>0.3643939167738958</v>
       </c>
       <c r="D59">
-        <v>0.144312920057619</v>
+        <v>0.04356902955426572</v>
       </c>
       <c r="E59">
-        <v>0.07357018886831096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02007540040444358</v>
+      </c>
+      <c r="F59">
+        <v>0.01535269687753037</v>
+      </c>
+      <c r="G59">
+        <v>0.00692781420479462</v>
+      </c>
+      <c r="H59">
+        <v>-0.0483099230740367</v>
+      </c>
+      <c r="I59">
+        <v>-0.03837417751389115</v>
+      </c>
+      <c r="J59">
+        <v>0.06608317816827317</v>
+      </c>
+      <c r="K59">
+        <v>-0.0008426573496409382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2208402238378942</v>
+        <v>0.2455766976545258</v>
       </c>
       <c r="C60">
-        <v>-0.03667499069949428</v>
+        <v>-0.02673299320452825</v>
       </c>
       <c r="D60">
-        <v>-0.05214298033257735</v>
+        <v>-0.09513966657615525</v>
       </c>
       <c r="E60">
-        <v>0.04430765185008079</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1080822771771317</v>
+      </c>
+      <c r="F60">
+        <v>0.01143817457083233</v>
+      </c>
+      <c r="G60">
+        <v>-0.02715692962197152</v>
+      </c>
+      <c r="H60">
+        <v>0.1101483154558642</v>
+      </c>
+      <c r="I60">
+        <v>-0.143414650586605</v>
+      </c>
+      <c r="J60">
+        <v>-0.1121576960807004</v>
+      </c>
+      <c r="K60">
+        <v>-0.1204228207990379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.0831466921831033</v>
+        <v>0.08989744048906288</v>
       </c>
       <c r="C61">
-        <v>0.01271438346040221</v>
+        <v>-0.03414858059380895</v>
       </c>
       <c r="D61">
-        <v>-0.04116017946899848</v>
+        <v>-0.03578763384549781</v>
       </c>
       <c r="E61">
-        <v>0.01031125441368233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.02063147070335685</v>
+      </c>
+      <c r="F61">
+        <v>0.02451774117125197</v>
+      </c>
+      <c r="G61">
+        <v>0.04968419718700164</v>
+      </c>
+      <c r="H61">
+        <v>-0.04880893001238265</v>
+      </c>
+      <c r="I61">
+        <v>0.04748716568551752</v>
+      </c>
+      <c r="J61">
+        <v>0.07188498132791799</v>
+      </c>
+      <c r="K61">
+        <v>-0.007319377031328332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1521634899028933</v>
+        <v>0.147536989126903</v>
       </c>
       <c r="C62">
-        <v>-0.02945427348276043</v>
+        <v>-0.03151308655703857</v>
       </c>
       <c r="D62">
-        <v>-0.02503347141142968</v>
+        <v>-0.04047227345380386</v>
       </c>
       <c r="E62">
-        <v>0.001524985061728391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.02817348169405797</v>
+      </c>
+      <c r="F62">
+        <v>-0.03858682152230686</v>
+      </c>
+      <c r="G62">
+        <v>0.04361766739261392</v>
+      </c>
+      <c r="H62">
+        <v>-0.2216280224494272</v>
+      </c>
+      <c r="I62">
+        <v>-0.08352292374479171</v>
+      </c>
+      <c r="J62">
+        <v>-0.08047900307469066</v>
+      </c>
+      <c r="K62">
+        <v>-0.005851713948846215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.05968118768196788</v>
+        <v>0.05266119336458178</v>
       </c>
       <c r="C63">
-        <v>0.02554017026756926</v>
+        <v>-0.02297275151577138</v>
       </c>
       <c r="D63">
-        <v>-0.02234534044326218</v>
+        <v>-0.006549492325999341</v>
       </c>
       <c r="E63">
-        <v>0.008536967214926904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0312738092943343</v>
+      </c>
+      <c r="F63">
+        <v>0.007298828177574626</v>
+      </c>
+      <c r="G63">
+        <v>0.0544507437597312</v>
+      </c>
+      <c r="H63">
+        <v>-0.01224755912532409</v>
+      </c>
+      <c r="I63">
+        <v>0.04331908202542743</v>
+      </c>
+      <c r="J63">
+        <v>-0.03099213057599379</v>
+      </c>
+      <c r="K63">
+        <v>0.05020545840097523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1035053188276185</v>
+        <v>0.1089875383956048</v>
       </c>
       <c r="C64">
-        <v>0.005851166969073938</v>
+        <v>-0.02057635971776767</v>
       </c>
       <c r="D64">
-        <v>-0.0414679536199262</v>
+        <v>-0.03665340251720575</v>
       </c>
       <c r="E64">
-        <v>0.03216983018814507</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03845242509110369</v>
+      </c>
+      <c r="F64">
+        <v>0.053870932046001</v>
+      </c>
+      <c r="G64">
+        <v>0.05166356762254647</v>
+      </c>
+      <c r="H64">
+        <v>0.02087532301411781</v>
+      </c>
+      <c r="I64">
+        <v>0.05405999495917944</v>
+      </c>
+      <c r="J64">
+        <v>0.03505816293819779</v>
+      </c>
+      <c r="K64">
+        <v>0.0204201476247906</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1255066201825404</v>
+        <v>0.1337444070433308</v>
       </c>
       <c r="C65">
-        <v>0.01479846052212282</v>
+        <v>-0.006039016990361776</v>
       </c>
       <c r="D65">
-        <v>-0.04536978028190558</v>
+        <v>-0.04721414431121115</v>
       </c>
       <c r="E65">
-        <v>0.05009715139754771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01737795954077958</v>
+      </c>
+      <c r="F65">
+        <v>0.01379155868098043</v>
+      </c>
+      <c r="G65">
+        <v>0.08143816132573567</v>
+      </c>
+      <c r="H65">
+        <v>0.2409483289439519</v>
+      </c>
+      <c r="I65">
+        <v>0.04583552656279152</v>
+      </c>
+      <c r="J65">
+        <v>-0.6460035860108995</v>
+      </c>
+      <c r="K65">
+        <v>0.02713072477641341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1608102210145941</v>
+        <v>0.1501013942699711</v>
       </c>
       <c r="C66">
-        <v>0.05837346342931322</v>
+        <v>-0.09244263869801522</v>
       </c>
       <c r="D66">
-        <v>-0.07574443599318756</v>
+        <v>-0.0522900826156177</v>
       </c>
       <c r="E66">
-        <v>0.01460356044447174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01896596785775327</v>
+      </c>
+      <c r="F66">
+        <v>0.0118239306164847</v>
+      </c>
+      <c r="G66">
+        <v>0.08946009872808859</v>
+      </c>
+      <c r="H66">
+        <v>-0.02974660670907057</v>
+      </c>
+      <c r="I66">
+        <v>0.1164815834878232</v>
+      </c>
+      <c r="J66">
+        <v>0.2207946784953209</v>
+      </c>
+      <c r="K66">
+        <v>0.01685901744121748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09588842700260825</v>
+        <v>0.09794280256265134</v>
       </c>
       <c r="C67">
-        <v>0.005004861061808816</v>
+        <v>-0.03582816361330155</v>
       </c>
       <c r="D67">
-        <v>0.02287417925053454</v>
+        <v>0.01437208836749893</v>
       </c>
       <c r="E67">
-        <v>-0.006833662270972264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01763241931211812</v>
+      </c>
+      <c r="F67">
+        <v>0.01182588123274799</v>
+      </c>
+      <c r="G67">
+        <v>-0.01537471205412042</v>
+      </c>
+      <c r="H67">
+        <v>-0.01110082556465899</v>
+      </c>
+      <c r="I67">
+        <v>-0.04089743358584877</v>
+      </c>
+      <c r="J67">
+        <v>0.05539147969679208</v>
+      </c>
+      <c r="K67">
+        <v>0.05042149305970269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04934684567979435</v>
+        <v>0.07610452443708018</v>
       </c>
       <c r="C68">
-        <v>-0.2434298561279817</v>
+        <v>0.280574418949409</v>
       </c>
       <c r="D68">
-        <v>0.08166952228062185</v>
+        <v>0.03139677391297954</v>
       </c>
       <c r="E68">
-        <v>0.04829638934616408</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.03306300708866501</v>
+      </c>
+      <c r="F68">
+        <v>0.03067875460130174</v>
+      </c>
+      <c r="G68">
+        <v>-0.003310239473463786</v>
+      </c>
+      <c r="H68">
+        <v>-0.01870052411672808</v>
+      </c>
+      <c r="I68">
+        <v>0.0293258699371846</v>
+      </c>
+      <c r="J68">
+        <v>-0.04004633900945106</v>
+      </c>
+      <c r="K68">
+        <v>0.001274552762073191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06821379808632155</v>
+        <v>0.05732300506144728</v>
       </c>
       <c r="C69">
-        <v>0.01208633763230128</v>
+        <v>-0.01865711720343426</v>
       </c>
       <c r="D69">
-        <v>-0.001118281687032516</v>
+        <v>0.01842460477730486</v>
       </c>
       <c r="E69">
-        <v>0.01047059088159863</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01467107211547598</v>
+      </c>
+      <c r="F69">
+        <v>-0.005636330077445814</v>
+      </c>
+      <c r="G69">
+        <v>0.0001154831187347892</v>
+      </c>
+      <c r="H69">
+        <v>-0.03270516884854353</v>
+      </c>
+      <c r="I69">
+        <v>0.01448086932097497</v>
+      </c>
+      <c r="J69">
+        <v>-0.001765995582182876</v>
+      </c>
+      <c r="K69">
+        <v>-0.006804423341951062</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01354229448910071</v>
+        <v>0.0349040916359504</v>
       </c>
       <c r="C70">
-        <v>-0.008001799387611495</v>
+        <v>0.001094243898227199</v>
       </c>
       <c r="D70">
-        <v>0.009269391933791294</v>
+        <v>0.004989670642440078</v>
       </c>
       <c r="E70">
-        <v>-0.01810466199505084</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.0442786260413013</v>
+      </c>
+      <c r="F70">
+        <v>-0.01302765662046569</v>
+      </c>
+      <c r="G70">
+        <v>-0.007906804458400897</v>
+      </c>
+      <c r="H70">
+        <v>0.04085602435444251</v>
+      </c>
+      <c r="I70">
+        <v>0.007652373769548992</v>
+      </c>
+      <c r="J70">
+        <v>0.04847961961693621</v>
+      </c>
+      <c r="K70">
+        <v>0.1201788128450789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04479470441664113</v>
+        <v>0.08255011342877838</v>
       </c>
       <c r="C71">
-        <v>-0.2712647781115037</v>
+        <v>0.3001072538758716</v>
       </c>
       <c r="D71">
-        <v>0.09320671497618314</v>
+        <v>0.02417672282722744</v>
       </c>
       <c r="E71">
-        <v>0.09102680963666879</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02426674042433611</v>
+      </c>
+      <c r="F71">
+        <v>0.0513706260307278</v>
+      </c>
+      <c r="G71">
+        <v>0.003041001421635343</v>
+      </c>
+      <c r="H71">
+        <v>-0.01870218075391525</v>
+      </c>
+      <c r="I71">
+        <v>0.02774823290756284</v>
+      </c>
+      <c r="J71">
+        <v>-0.0126517259946723</v>
+      </c>
+      <c r="K71">
+        <v>0.004644025929615703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.145439870781907</v>
+        <v>0.1358068803794373</v>
       </c>
       <c r="C72">
-        <v>-0.04112294157579546</v>
+        <v>0.003005440279918086</v>
       </c>
       <c r="D72">
-        <v>-0.004974064086341057</v>
+        <v>0.01212487709811113</v>
       </c>
       <c r="E72">
-        <v>-0.2223366067294883</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01763812442022366</v>
+      </c>
+      <c r="F72">
+        <v>-0.1725303912326916</v>
+      </c>
+      <c r="G72">
+        <v>0.1283063909116335</v>
+      </c>
+      <c r="H72">
+        <v>-0.003728361306102713</v>
+      </c>
+      <c r="I72">
+        <v>-0.0228494653455058</v>
+      </c>
+      <c r="J72">
+        <v>-0.1190636181454836</v>
+      </c>
+      <c r="K72">
+        <v>-0.1153167406759719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2692909399307718</v>
+        <v>0.2614433367657583</v>
       </c>
       <c r="C73">
-        <v>0.0002663309587235373</v>
+        <v>-0.08322018545988662</v>
       </c>
       <c r="D73">
-        <v>-0.1130730235983761</v>
+        <v>-0.1577540371335598</v>
       </c>
       <c r="E73">
-        <v>0.06926881172834293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2913836506691209</v>
+      </c>
+      <c r="F73">
+        <v>-0.008084576386535839</v>
+      </c>
+      <c r="G73">
+        <v>-0.2269332508680569</v>
+      </c>
+      <c r="H73">
+        <v>0.2285698809240482</v>
+      </c>
+      <c r="I73">
+        <v>-0.1594568588660489</v>
+      </c>
+      <c r="J73">
+        <v>0.1639230982999783</v>
+      </c>
+      <c r="K73">
+        <v>-0.5274424849597691</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09102938301265964</v>
+        <v>0.09464558387079071</v>
       </c>
       <c r="C74">
-        <v>-0.02334024036686366</v>
+        <v>-0.02486375427951139</v>
       </c>
       <c r="D74">
-        <v>-0.04438313817846905</v>
+        <v>-0.04893077569201382</v>
       </c>
       <c r="E74">
-        <v>0.002282281548507806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.002138510755063515</v>
+      </c>
+      <c r="F74">
+        <v>-0.010224048705293</v>
+      </c>
+      <c r="G74">
+        <v>-0.02045471155495952</v>
+      </c>
+      <c r="H74">
+        <v>-0.1427419876853444</v>
+      </c>
+      <c r="I74">
+        <v>0.008716619668821344</v>
+      </c>
+      <c r="J74">
+        <v>-0.01610124276153544</v>
+      </c>
+      <c r="K74">
+        <v>-0.06569747053357962</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.118894451002399</v>
+        <v>0.105372637274257</v>
       </c>
       <c r="C75">
-        <v>-0.001844231292273137</v>
+        <v>-0.02658293366211809</v>
       </c>
       <c r="D75">
-        <v>-0.002568599129536975</v>
+        <v>0.01523507993095967</v>
       </c>
       <c r="E75">
-        <v>0.02030309847964699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.01146121896505634</v>
+      </c>
+      <c r="F75">
+        <v>-0.00996644146375392</v>
+      </c>
+      <c r="G75">
+        <v>-0.004684749703892921</v>
+      </c>
+      <c r="H75">
+        <v>-0.1218419518679828</v>
+      </c>
+      <c r="I75">
+        <v>-0.04593258290280436</v>
+      </c>
+      <c r="J75">
+        <v>-0.03295805568538206</v>
+      </c>
+      <c r="K75">
+        <v>0.0006398630174656562</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1433346304659848</v>
+        <v>0.1356830926749137</v>
       </c>
       <c r="C76">
-        <v>-0.0001550141120098724</v>
+        <v>-0.04805309513541364</v>
       </c>
       <c r="D76">
-        <v>-0.05357005718489417</v>
+        <v>-0.05612154976301442</v>
       </c>
       <c r="E76">
-        <v>0.03443814748973548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.006962562885719814</v>
+      </c>
+      <c r="F76">
+        <v>0.01612859898631546</v>
+      </c>
+      <c r="G76">
+        <v>0.03212069073317034</v>
+      </c>
+      <c r="H76">
+        <v>-0.2790144570120169</v>
+      </c>
+      <c r="I76">
+        <v>-0.0429257331036601</v>
+      </c>
+      <c r="J76">
+        <v>-0.04678440994673712</v>
+      </c>
+      <c r="K76">
+        <v>-0.03890218642680757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1335609234746817</v>
+        <v>0.09728203788530659</v>
       </c>
       <c r="C77">
-        <v>0.09120728755273178</v>
+        <v>-0.05275615195554384</v>
       </c>
       <c r="D77">
-        <v>0.06496863135367088</v>
+        <v>0.1649566592474108</v>
       </c>
       <c r="E77">
-        <v>0.08518807480380274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.07898633629812575</v>
+      </c>
+      <c r="F77">
+        <v>0.1317535344308132</v>
+      </c>
+      <c r="G77">
+        <v>0.6983308906203947</v>
+      </c>
+      <c r="H77">
+        <v>0.2655596667414029</v>
+      </c>
+      <c r="I77">
+        <v>-0.4441734772303557</v>
+      </c>
+      <c r="J77">
+        <v>0.2016974236384786</v>
+      </c>
+      <c r="K77">
+        <v>-0.02924214471848545</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1186544660115623</v>
+        <v>0.161458806006163</v>
       </c>
       <c r="C78">
-        <v>0.05677857503166382</v>
+        <v>-0.06705834616687555</v>
       </c>
       <c r="D78">
-        <v>-0.05590655887105514</v>
+        <v>-0.03117776748822111</v>
       </c>
       <c r="E78">
-        <v>-0.004499170007600485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.1424921373665357</v>
+      </c>
+      <c r="F78">
+        <v>0.08035578740798173</v>
+      </c>
+      <c r="G78">
+        <v>-0.01657774143204618</v>
+      </c>
+      <c r="H78">
+        <v>0.1485295750038692</v>
+      </c>
+      <c r="I78">
+        <v>0.0327226570730004</v>
+      </c>
+      <c r="J78">
+        <v>-0.07821357205474508</v>
+      </c>
+      <c r="K78">
+        <v>0.06478589115882909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1542966910906155</v>
+        <v>0.1466300394326583</v>
       </c>
       <c r="C79">
-        <v>0.004787300475533229</v>
+        <v>-0.04078054380608714</v>
       </c>
       <c r="D79">
-        <v>-0.06406140898061727</v>
+        <v>-0.04654392899011141</v>
       </c>
       <c r="E79">
-        <v>0.008889840647225575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.0008800045777168818</v>
+      </c>
+      <c r="F79">
+        <v>-0.007779303520324105</v>
+      </c>
+      <c r="G79">
+        <v>0.05541212925688174</v>
+      </c>
+      <c r="H79">
+        <v>-0.1905889498324626</v>
+      </c>
+      <c r="I79">
+        <v>-0.05527025547653715</v>
+      </c>
+      <c r="J79">
+        <v>-0.06382547794108784</v>
+      </c>
+      <c r="K79">
+        <v>-0.0251720908439204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.04231380318010616</v>
+        <v>0.04365916520476278</v>
       </c>
       <c r="C80">
-        <v>0.01774921612137714</v>
+        <v>-0.01282630293766268</v>
       </c>
       <c r="D80">
-        <v>-0.01072080081428733</v>
+        <v>-0.02350949603466689</v>
       </c>
       <c r="E80">
-        <v>-0.0001558790791338545</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04625703826974156</v>
+      </c>
+      <c r="F80">
+        <v>-0.005396553087694397</v>
+      </c>
+      <c r="G80">
+        <v>0.0159475564539017</v>
+      </c>
+      <c r="H80">
+        <v>0.03003180399246172</v>
+      </c>
+      <c r="I80">
+        <v>0.1141846413909302</v>
+      </c>
+      <c r="J80">
+        <v>-0.01667411446518176</v>
+      </c>
+      <c r="K80">
+        <v>0.01897841065790119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1350663112245254</v>
+        <v>0.1290828708340927</v>
       </c>
       <c r="C81">
-        <v>-0.00968814207606809</v>
+        <v>-0.01956355853434611</v>
       </c>
       <c r="D81">
-        <v>-0.04223281532473228</v>
+        <v>-0.03406279478423782</v>
       </c>
       <c r="E81">
-        <v>0.02659981929805933</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.004815059609406426</v>
+      </c>
+      <c r="F81">
+        <v>0.01318994097948805</v>
+      </c>
+      <c r="G81">
+        <v>0.01793562089066765</v>
+      </c>
+      <c r="H81">
+        <v>-0.153575473737948</v>
+      </c>
+      <c r="I81">
+        <v>-0.01223564259574851</v>
+      </c>
+      <c r="J81">
+        <v>0.013413978027553</v>
+      </c>
+      <c r="K81">
+        <v>-0.0005356342545949146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1264523701002987</v>
+        <v>0.1221759486051131</v>
       </c>
       <c r="C82">
-        <v>0.002256650128189577</v>
+        <v>-0.02792907528010924</v>
       </c>
       <c r="D82">
-        <v>-0.03969542916113816</v>
+        <v>-0.04021533478054999</v>
       </c>
       <c r="E82">
-        <v>0.04803138812149107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.02228753386767303</v>
+      </c>
+      <c r="F82">
+        <v>0.01510997628461682</v>
+      </c>
+      <c r="G82">
+        <v>-0.005919282438387748</v>
+      </c>
+      <c r="H82">
+        <v>-0.2793401026325061</v>
+      </c>
+      <c r="I82">
+        <v>-0.05153724155526072</v>
+      </c>
+      <c r="J82">
+        <v>0.00892878813775061</v>
+      </c>
+      <c r="K82">
+        <v>0.005721084030811784</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05097089242650013</v>
+        <v>0.07418500564528072</v>
       </c>
       <c r="C83">
-        <v>0.01418065649147541</v>
+        <v>-0.0279549404507245</v>
       </c>
       <c r="D83">
-        <v>0.0418192004879156</v>
+        <v>0.02334340017726126</v>
       </c>
       <c r="E83">
-        <v>0.0190368183599268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.06323980225215382</v>
+      </c>
+      <c r="F83">
+        <v>0.02259829279777241</v>
+      </c>
+      <c r="G83">
+        <v>-0.05669964149919005</v>
+      </c>
+      <c r="H83">
+        <v>0.06322149758093976</v>
+      </c>
+      <c r="I83">
+        <v>0.06750017864368105</v>
+      </c>
+      <c r="J83">
+        <v>0.04364425582590899</v>
+      </c>
+      <c r="K83">
+        <v>0.05140820554190083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04583152789337682</v>
+        <v>0.03597395952127736</v>
       </c>
       <c r="C84">
-        <v>0.01621158186823931</v>
+        <v>-0.04122536454972899</v>
       </c>
       <c r="D84">
-        <v>-0.03417818128364317</v>
+        <v>-0.009457545290326316</v>
       </c>
       <c r="E84">
-        <v>-0.05542049156309158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.04685256473288822</v>
+      </c>
+      <c r="F84">
+        <v>-0.03754967892840309</v>
+      </c>
+      <c r="G84">
+        <v>-0.02834675299198873</v>
+      </c>
+      <c r="H84">
+        <v>-0.01518400690986968</v>
+      </c>
+      <c r="I84">
+        <v>0.1215287865476911</v>
+      </c>
+      <c r="J84">
+        <v>0.01351348833388705</v>
+      </c>
+      <c r="K84">
+        <v>0.08246368039293464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1180590353894037</v>
+        <v>0.1229095419994253</v>
       </c>
       <c r="C85">
-        <v>0.02562668447613157</v>
+        <v>-0.0366751046447278</v>
       </c>
       <c r="D85">
-        <v>-0.03124420103940059</v>
+        <v>-0.01985488285618616</v>
       </c>
       <c r="E85">
-        <v>0.06462351837836465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0008918635633048316</v>
+      </c>
+      <c r="F85">
+        <v>0.03515742992238183</v>
+      </c>
+      <c r="G85">
+        <v>0.02023544548805806</v>
+      </c>
+      <c r="H85">
+        <v>-0.1897033655346075</v>
+      </c>
+      <c r="I85">
+        <v>-0.02913051234680435</v>
+      </c>
+      <c r="J85">
+        <v>-0.07142110916991512</v>
+      </c>
+      <c r="K85">
+        <v>-0.02301660800158751</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06953847557204421</v>
+        <v>0.06280617167253097</v>
       </c>
       <c r="C86">
-        <v>0.0562138492486903</v>
+        <v>-0.03578841792392363</v>
       </c>
       <c r="D86">
-        <v>-0.0311212414474934</v>
+        <v>0.01187159827947298</v>
       </c>
       <c r="E86">
-        <v>0.008097995980229001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02702461677777652</v>
+      </c>
+      <c r="F86">
+        <v>0.0241194674751072</v>
+      </c>
+      <c r="G86">
+        <v>-0.01503492675101199</v>
+      </c>
+      <c r="H86">
+        <v>0.05614186504823435</v>
+      </c>
+      <c r="I86">
+        <v>-0.06776876802697152</v>
+      </c>
+      <c r="J86">
+        <v>-0.0387776360250662</v>
+      </c>
+      <c r="K86">
+        <v>0.1162225817444305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1357546561401895</v>
+        <v>0.1328496060996585</v>
       </c>
       <c r="C87">
-        <v>0.049290460071136</v>
+        <v>-0.06813223808138226</v>
       </c>
       <c r="D87">
-        <v>-0.07928025168424584</v>
+        <v>-0.02197623409269637</v>
       </c>
       <c r="E87">
-        <v>0.02942626713836971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08294718531467617</v>
+      </c>
+      <c r="F87">
+        <v>0.04469733554098283</v>
+      </c>
+      <c r="G87">
+        <v>0.1574274239207175</v>
+      </c>
+      <c r="H87">
+        <v>0.0780877268126894</v>
+      </c>
+      <c r="I87">
+        <v>-0.02465908599210436</v>
+      </c>
+      <c r="J87">
+        <v>0.02274871087271118</v>
+      </c>
+      <c r="K87">
+        <v>-0.009584322372109318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06100545252891144</v>
+        <v>0.06513425364929472</v>
       </c>
       <c r="C88">
-        <v>0.0217147340382607</v>
+        <v>-0.03882683914470424</v>
       </c>
       <c r="D88">
-        <v>-0.02064757586281045</v>
+        <v>-0.02418002855270726</v>
       </c>
       <c r="E88">
-        <v>0.01073887214912508</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.00703001216502352</v>
+      </c>
+      <c r="F88">
+        <v>0.01521183381320552</v>
+      </c>
+      <c r="G88">
+        <v>0.02483093544980701</v>
+      </c>
+      <c r="H88">
+        <v>-0.02294601604925637</v>
+      </c>
+      <c r="I88">
+        <v>0.04632177358394171</v>
+      </c>
+      <c r="J88">
+        <v>0.0219998976979924</v>
+      </c>
+      <c r="K88">
+        <v>0.02267249483918369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.07563271896465922</v>
+        <v>0.1307727063241257</v>
       </c>
       <c r="C89">
-        <v>-0.3062917475232573</v>
+        <v>0.37573143091051</v>
       </c>
       <c r="D89">
-        <v>0.09764428405401877</v>
+        <v>0.02586587620103583</v>
       </c>
       <c r="E89">
-        <v>0.1121410654475929</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01776566315014213</v>
+      </c>
+      <c r="F89">
+        <v>0.09678719729751811</v>
+      </c>
+      <c r="G89">
+        <v>-0.01666355172899597</v>
+      </c>
+      <c r="H89">
+        <v>-0.002212313016879176</v>
+      </c>
+      <c r="I89">
+        <v>0.0769801367815172</v>
+      </c>
+      <c r="J89">
+        <v>0.07095385035172951</v>
+      </c>
+      <c r="K89">
+        <v>-0.02094863056645308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06738811830562889</v>
+        <v>0.09507469801942466</v>
       </c>
       <c r="C90">
-        <v>-0.2616967817134954</v>
+        <v>0.2807350073816833</v>
       </c>
       <c r="D90">
-        <v>0.1118685163496025</v>
+        <v>0.04533803739914847</v>
       </c>
       <c r="E90">
-        <v>0.06390350533229708</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007260320433576052</v>
+      </c>
+      <c r="F90">
+        <v>0.04287567623083388</v>
+      </c>
+      <c r="G90">
+        <v>0.01788769517411005</v>
+      </c>
+      <c r="H90">
+        <v>0.03661029035901658</v>
+      </c>
+      <c r="I90">
+        <v>0.07274224782633262</v>
+      </c>
+      <c r="J90">
+        <v>0.04832203689083611</v>
+      </c>
+      <c r="K90">
+        <v>-0.03556462414361562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1057355673450183</v>
+        <v>0.09324808675415865</v>
       </c>
       <c r="C91">
-        <v>-0.005165098526443812</v>
+        <v>-0.02879071476340818</v>
       </c>
       <c r="D91">
-        <v>-0.03503042273562632</v>
+        <v>-0.01904830998259616</v>
       </c>
       <c r="E91">
-        <v>0.01607206967165322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.002898500770980949</v>
+      </c>
+      <c r="F91">
+        <v>-0.004606938229696942</v>
+      </c>
+      <c r="G91">
+        <v>-0.01313350744993711</v>
+      </c>
+      <c r="H91">
+        <v>-0.08433388428588294</v>
+      </c>
+      <c r="I91">
+        <v>-0.03835387717123279</v>
+      </c>
+      <c r="J91">
+        <v>-0.007363739506060329</v>
+      </c>
+      <c r="K91">
+        <v>-0.02423363157703111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.05544193652589043</v>
+        <v>0.09448214914640102</v>
       </c>
       <c r="C92">
-        <v>-0.3191047072300477</v>
+        <v>0.3352299265079513</v>
       </c>
       <c r="D92">
-        <v>0.08692252889888248</v>
+        <v>0.01640500616950002</v>
       </c>
       <c r="E92">
-        <v>0.09539812119474862</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.02923181532959769</v>
+      </c>
+      <c r="F92">
+        <v>0.05599476484285578</v>
+      </c>
+      <c r="G92">
+        <v>0.003176594796012116</v>
+      </c>
+      <c r="H92">
+        <v>-0.01624103359079522</v>
+      </c>
+      <c r="I92">
+        <v>0.02436580456489152</v>
+      </c>
+      <c r="J92">
+        <v>0.02287997828288486</v>
+      </c>
+      <c r="K92">
+        <v>-0.001824593691006946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.05172122750239819</v>
+        <v>0.09420279009042916</v>
       </c>
       <c r="C93">
-        <v>-0.2939978694703267</v>
+        <v>0.3205693823806408</v>
       </c>
       <c r="D93">
-        <v>0.08588987253052438</v>
+        <v>0.009869802159544611</v>
       </c>
       <c r="E93">
-        <v>0.06503401193966715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0005229897477769596</v>
+      </c>
+      <c r="F93">
+        <v>0.03301504201053281</v>
+      </c>
+      <c r="G93">
+        <v>0.002647722843573754</v>
+      </c>
+      <c r="H93">
+        <v>0.008107019513674287</v>
+      </c>
+      <c r="I93">
+        <v>0.01395754338130625</v>
+      </c>
+      <c r="J93">
+        <v>-0.0007606408414778842</v>
+      </c>
+      <c r="K93">
+        <v>0.02265563385348577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1260734402134861</v>
+        <v>0.1228251848066812</v>
       </c>
       <c r="C94">
-        <v>0.04125177825800742</v>
+        <v>-0.05015026026508602</v>
       </c>
       <c r="D94">
-        <v>-0.0452613321725106</v>
+        <v>-0.01641089474532621</v>
       </c>
       <c r="E94">
-        <v>0.03140973041314862</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.008932538677869632</v>
+      </c>
+      <c r="F94">
+        <v>0.01872875854345668</v>
+      </c>
+      <c r="G94">
+        <v>-0.05055290994456407</v>
+      </c>
+      <c r="H94">
+        <v>-0.1174961243325861</v>
+      </c>
+      <c r="I94">
+        <v>-0.03245794188997177</v>
+      </c>
+      <c r="J94">
+        <v>-0.02487302416070336</v>
+      </c>
+      <c r="K94">
+        <v>-0.01950881287651118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1279729012686984</v>
+        <v>0.1383024319602797</v>
       </c>
       <c r="C95">
-        <v>0.0643550854483225</v>
+        <v>-0.06513708823908233</v>
       </c>
       <c r="D95">
-        <v>-0.08388268820836195</v>
+        <v>-0.03167639017496922</v>
       </c>
       <c r="E95">
-        <v>0.05461309322151117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.03540513769709133</v>
+      </c>
+      <c r="F95">
+        <v>0.05003120107573762</v>
+      </c>
+      <c r="G95">
+        <v>0.02941313908981836</v>
+      </c>
+      <c r="H95">
+        <v>0.1558720151687635</v>
+      </c>
+      <c r="I95">
+        <v>0.06031100392019054</v>
+      </c>
+      <c r="J95">
+        <v>0.002750651345354183</v>
+      </c>
+      <c r="K95">
+        <v>0.04950899518144998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2346630345263358</v>
+        <v>0.176013379239003</v>
       </c>
       <c r="C97">
-        <v>-0.1472485153152156</v>
+        <v>0.0509542693387758</v>
       </c>
       <c r="D97">
-        <v>0.05498224654065178</v>
+        <v>0.1767672352078468</v>
       </c>
       <c r="E97">
-        <v>-0.894765975712556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.1832750946973686</v>
+      </c>
+      <c r="F97">
+        <v>-0.8991509709222778</v>
+      </c>
+      <c r="G97">
+        <v>0.08955863547958631</v>
+      </c>
+      <c r="H97">
+        <v>0.05060475367478438</v>
+      </c>
+      <c r="I97">
+        <v>0.0749697896570341</v>
+      </c>
+      <c r="J97">
+        <v>0.04019927878084605</v>
+      </c>
+      <c r="K97">
+        <v>-0.04511914980481326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2789303171688933</v>
+        <v>0.2854596039949652</v>
       </c>
       <c r="C98">
-        <v>0.007866775216706073</v>
+        <v>-0.06885423307945471</v>
       </c>
       <c r="D98">
-        <v>-0.02392097329507973</v>
+        <v>-0.07386917766221127</v>
       </c>
       <c r="E98">
-        <v>0.02528691519549446</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2892372047814318</v>
+      </c>
+      <c r="F98">
+        <v>-0.1030800119158278</v>
+      </c>
+      <c r="G98">
+        <v>-0.2924674148092737</v>
+      </c>
+      <c r="H98">
+        <v>0.2129948687817307</v>
+      </c>
+      <c r="I98">
+        <v>-0.1763508006540659</v>
+      </c>
+      <c r="J98">
+        <v>0.1909847687945936</v>
+      </c>
+      <c r="K98">
+        <v>0.6237245748514479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2237080681853971</v>
+        <v>0.1547454506232533</v>
       </c>
       <c r="C99">
-        <v>0.3368077282451985</v>
+        <v>-0.1236434884729241</v>
       </c>
       <c r="D99">
-        <v>0.8753534188537635</v>
+        <v>0.8531660316903273</v>
       </c>
       <c r="E99">
-        <v>0.04312752492752689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3592619598859815</v>
+      </c>
+      <c r="F99">
+        <v>0.1207301596532168</v>
+      </c>
+      <c r="G99">
+        <v>-0.04345268632399615</v>
+      </c>
+      <c r="H99">
+        <v>-0.1197422069321159</v>
+      </c>
+      <c r="I99">
+        <v>0.04362240823842071</v>
+      </c>
+      <c r="J99">
+        <v>-0.08928575103655717</v>
+      </c>
+      <c r="K99">
+        <v>0.002575921824797593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05667594980593035</v>
+        <v>0.05556069941788841</v>
       </c>
       <c r="C101">
-        <v>-0.01038428044023545</v>
+        <v>-0.00771457438490157</v>
       </c>
       <c r="D101">
-        <v>-0.03351524005688921</v>
+        <v>-0.02912676940356553</v>
       </c>
       <c r="E101">
-        <v>0.02224230874513022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03708054334335645</v>
+      </c>
+      <c r="F101">
+        <v>0.0286184607937661</v>
+      </c>
+      <c r="G101">
+        <v>0.03020432452844919</v>
+      </c>
+      <c r="H101">
+        <v>-0.06266390754044014</v>
+      </c>
+      <c r="I101">
+        <v>0.04821668914633369</v>
+      </c>
+      <c r="J101">
+        <v>-0.01230989516162586</v>
+      </c>
+      <c r="K101">
+        <v>0.05169411269574254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
